--- a/medicine/Enfance/Wiggins_(série_littéraire)/Wiggins_(série_littéraire).xlsx
+++ b/medicine/Enfance/Wiggins_(série_littéraire)/Wiggins_(série_littéraire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Wiggins_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Wiggins_(série_littéraire)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Wiggins est une série de romans policiers pour la jeunesse écrite par Béatrice Nicodème. C'est aussi le nom du personnage principal de la série.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Wiggins_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Wiggins_(série_littéraire)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Les personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Wiggins est un gamin des rues, un vendeur de journaux aperçu dans les récits de Conan Doyle, et qui aide Sherlock Holmes dans deux de ses enquêtes[1]. Béatrice Nicodème  reprend ce personnage et en fait le héros de ces romans. Elle lui invente un passé, imagine son enfance, sa mère, son rêve de devenir détective.Wiggins a 15 ans en 1889. Orphelin de père, il vit avec sa mère dans une chambre minable du quartier misérable de Whitechapel à Londres. Il avait un petit frère, mort en bas âge. Il ne mange pas à sa faim tous les jours, porte des vêtements élimés. Pour vivre, il vend des journaux, effectue de petits boulots. Il fréquente les gamins de son quartier, est le chef des Irréguliers de Baker Street, une petite bande à laquelle Sherlock Holmes a parfois recours. Wiggins admire Holmes et rêve de devenir détective, comme Lui.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Wiggins est un gamin des rues, un vendeur de journaux aperçu dans les récits de Conan Doyle, et qui aide Sherlock Holmes dans deux de ses enquêtes. Béatrice Nicodème  reprend ce personnage et en fait le héros de ces romans. Elle lui invente un passé, imagine son enfance, sa mère, son rêve de devenir détective.Wiggins a 15 ans en 1889. Orphelin de père, il vit avec sa mère dans une chambre minable du quartier misérable de Whitechapel à Londres. Il avait un petit frère, mort en bas âge. Il ne mange pas à sa faim tous les jours, porte des vêtements élimés. Pour vivre, il vend des journaux, effectue de petits boulots. Il fréquente les gamins de son quartier, est le chef des Irréguliers de Baker Street, une petite bande à laquelle Sherlock Holmes a parfois recours. Wiggins admire Holmes et rêve de devenir détective, comme Lui.
 Sherlock Holmes : détective créé par Conan Doyle. Il vit ici de nouvelles aventures
 Docteur Watson : acolyte de Sherlock créé par Conan Doyle
 Mrs Hudson : logeuse de Sherlock Holmes au 221B Baker Street. Elle accueille Wiggins à chacune de ses visites
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Wiggins_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Wiggins_(série_littéraire)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Romans de la série</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Wiggins et le Perroquet muet, Syros 1993
 Défi à Sherlock Holmes, Presses de la Cité, 1993
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Wiggins_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Wiggins_(série_littéraire)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Londres fin XIXe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La ville de Londres vers 1890, sa géographie, ses odeurs, ses habitants forme un élément important des romans. 
 </t>
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Wiggins_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Wiggins_(série_littéraire)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,10 +634,12 @@
           <t>Autres apparitions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le personnage de Wiggins apparaît bien sûr dans des récits du "Canon" de Conan Doyle, mais plus tard d'autres auteurs l'ont cité ou lui ont fait vivre de nouvelles aventures.
-Dans Sherlock Holmes contre Jack l'Eventreur d'Ellery Queen[2],  Holmes mentionne que "Wiggins a bien réussi. Il s'est engagé dans les troupes de Sa Majesté. Sa dernière lettre venait d'Afrique."</t>
+Dans Sherlock Holmes contre Jack l'Eventreur d'Ellery Queen,  Holmes mentionne que "Wiggins a bien réussi. Il s'est engagé dans les troupes de Sa Majesté. Sa dernière lettre venait d'Afrique."</t>
         </is>
       </c>
     </row>
